--- a/simulations/raw_inclusion_exclusion/Jeyaraman_2020 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Jeyaraman_2020 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,13 +713,13 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.4895833333333333</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="D3">
         <v>0.7916666666666666</v>
       </c>
       <c r="E3">
-        <v>0.9791666666666666</v>
+        <v>0.9895833333333334</v>
       </c>
       <c r="F3">
         <v>0.9895833333333334</v>
@@ -728,16 +728,16 @@
         <v>0.9895833333333334</v>
       </c>
       <c r="H3">
-        <v>0.5353191489361702</v>
+        <v>0.5574468085106383</v>
       </c>
       <c r="I3">
-        <v>0.1292767222737102</v>
+        <v>0.1075262588816806</v>
       </c>
       <c r="J3">
-        <v>0.3958333333333333</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="K3">
-        <v>187.9895833333333</v>
+        <v>164.5208333333333</v>
       </c>
       <c r="L3">
         <v>9</v>
@@ -755,34 +755,34 @@
         <v>86</v>
       </c>
       <c r="Q3">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="R3">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="S3">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="T3">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="U3">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="V3">
-        <v>1050</v>
+        <v>1073</v>
       </c>
       <c r="W3">
-        <v>1036</v>
+        <v>1062</v>
       </c>
       <c r="X3">
-        <v>1003</v>
+        <v>1032</v>
       </c>
       <c r="Y3">
-        <v>883</v>
+        <v>908</v>
       </c>
       <c r="Z3">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="AA3">
         <v>87</v>
@@ -800,19 +800,19 @@
         <v>10</v>
       </c>
       <c r="AF3">
-        <v>0.973123</v>
+        <v>0.994439</v>
       </c>
       <c r="AG3">
-        <v>0.960148</v>
+        <v>0.984245</v>
       </c>
       <c r="AH3">
-        <v>0.9295639999999999</v>
+        <v>0.956441</v>
       </c>
       <c r="AI3">
-        <v>0.81835</v>
+        <v>0.84152</v>
       </c>
       <c r="AJ3">
-        <v>0.663577</v>
+        <v>0.674699</v>
       </c>
     </row>
   </sheetData>
